--- a/outputs-r202/g__Clostridium.xlsx
+++ b/outputs-r202/g__Clostridium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -877,6 +882,11 @@
         <v>0.993095912337109</v>
       </c>
       <c r="BC2" t="inlineStr">
+        <is>
+          <t>s__Clostridium sp900317445</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
         <is>
           <t>s__Clostridium sp900317445</t>
         </is>

--- a/outputs-r202/g__Clostridium.xlsx
+++ b/outputs-r202/g__Clostridium.xlsx
@@ -723,163 +723,163 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.020390023129202e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>6.497630452781325e-06</v>
+        <v>1.561703750343083e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>1.484140460974488e-06</v>
+        <v>0.001511348080460831</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002211779406683438</v>
+        <v>9.658921474762942e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>3.0203900231292e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.207431223952732e-05</v>
+        <v>6.313380801632584e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.020390023129206e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.020390023129226e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.043776696526484e-09</v>
+        <v>6.159510557110869e-11</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002665965587401393</v>
+        <v>0.001320545958361476</v>
       </c>
       <c r="L2" t="n">
-        <v>3.0203900231292e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.0203900231292e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>3.0203900231292e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>4.5042301142007e-08</v>
+        <v>5.314420568896839e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>3.0203900231292e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.0203900231292e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>3.0203900231292e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>3.008227777378114e-10</v>
+        <v>2.226578638313877e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>1.816401526952098e-10</v>
+        <v>5.227619562496319e-11</v>
       </c>
       <c r="V2" t="n">
-        <v>3.020390023133508e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>3.020390023129218e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>3.020390023129212e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.657553040153817e-05</v>
+        <v>0.0004556366581891204</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.020390023129212e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.020390023129222e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.131897559215128e-06</v>
+        <v>1.063382021370136e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.957458832134105e-10</v>
+        <v>8.193299539080378e-07</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.295905166804711e-11</v>
+        <v>2.101783286185831e-11</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.020390023129222e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.020390023129212e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.597134014995107e-09</v>
+        <v>3.942120054908857e-09</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.264612153153259e-06</v>
+        <v>7.274345159900295e-08</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.993095912337109</v>
+        <v>0.9795742010195301</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.003514062060031808</v>
+        <v>0.01652037964230033</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.040554276164159e-09</v>
+        <v>2.471010192343334e-08</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.668292757714439e-05</v>
+        <v>1.393895869674945e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.020390023129224e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.124440954774947e-05</v>
+        <v>0.000206673901683496</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.020390023128372e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0003628674285271517</v>
+        <v>0.0002378555047246119</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.020390023129218e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3.020390023129218e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.020390023129218e-14</v>
+        <v>2.22030566968855e-14</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.993095912337109</v>
+        <v>0.9795742010195301</v>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
